--- a/snapReactors/reference_calc/Isotopic Abundance Calculator - SNAP8.xlsx
+++ b/snapReactors/reference_calc/Isotopic Abundance Calculator - SNAP8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\SNAP-REACTORS\snapReactors\reference_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214CFEB-8B85-4C62-BA3D-765D5EA5DF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E9FA29-FA41-4F85-BA61-2620D083E0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{81BEF129-3FF4-8B4D-B629-A8811C0FB0A3}"/>
+    <workbookView xWindow="32595" yWindow="2010" windowWidth="14400" windowHeight="11280" activeTab="10" xr2:uid="{81BEF129-3FF4-8B4D-B629-A8811C0FB0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Calculator" sheetId="1" r:id="rId1"/>
@@ -1362,6 +1362,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,8 +1382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1718,35 +1718,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5"/>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1803,10 +1803,10 @@
         <f>$S$1*R2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1863,41 +1863,41 @@
         <f>$S$1*R3</f>
         <v>0</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1951,8 +1951,8 @@
         <f>$S$5*R6</f>
         <v>0</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2006,8 +2006,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -2050,17 +2050,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2073,28 +2073,28 @@
         <f>$C$9*B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2148,8 +2148,8 @@
         <f>$S$10*R11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2203,8 +2203,8 @@
         <f t="shared" ref="S12:S16" si="7">$S$10*R12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2249,10 +2249,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5"/>
       <c r="Q14" s="4" t="s">
         <v>57</v>
@@ -2272,10 +2272,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -2287,15 +2287,15 @@
         <f>$G$14*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="4" t="s">
         <v>64</v>
@@ -2403,10 +2403,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -2428,10 +2428,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2529,15 +2529,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -2551,10 +2551,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>91</v>
@@ -2672,15 +2672,15 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -2692,17 +2692,17 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -2810,10 +2810,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -2837,10 +2837,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
       <c r="M29" s="4" t="s">
         <v>121</v>
@@ -2864,10 +2864,10 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -3005,10 +3005,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -3030,10 +3030,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3173,10 +3173,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -3188,10 +3188,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -3225,10 +3225,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -3282,10 +3282,10 @@
         <f t="shared" ref="O39:O47" si="21">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -3321,15 +3321,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -3445,10 +3445,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -3628,10 +3628,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -3655,10 +3655,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="Q48" s="4" t="s">
         <v>205</v>
@@ -3702,10 +3702,10 @@
         <f>$K$48*J49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -3751,10 +3751,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>215</v>
@@ -3776,10 +3776,10 @@
         <f t="shared" ref="O51:O56" si="26">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -3793,10 +3793,10 @@
         <f>$C$51*B52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -4038,15 +4038,15 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -4080,10 +4080,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -4139,10 +4139,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -4186,10 +4186,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -4317,10 +4317,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -4406,20 +4406,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -4465,10 +4465,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -4512,10 +4512,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -4539,20 +4539,20 @@
         <f>$G$69*F70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -4744,10 +4744,10 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -4793,10 +4793,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -4830,10 +4830,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -5022,35 +5022,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5"/>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -5107,10 +5107,10 @@
         <f>$S$1*R2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -5167,41 +5167,41 @@
         <f>$S$1*R3</f>
         <v>0</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -5255,8 +5255,8 @@
         <f>$S$5*R6</f>
         <v>0</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -5310,8 +5310,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -5354,17 +5354,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -5377,28 +5377,28 @@
         <f>$C$9*B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -5452,8 +5452,8 @@
         <f>$S$10*R11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -5507,8 +5507,8 @@
         <f t="shared" ref="S12:S16" si="7">$S$10*R12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -5553,10 +5553,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5"/>
       <c r="Q14" s="4" t="s">
         <v>57</v>
@@ -5576,10 +5576,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -5591,15 +5591,15 @@
         <f>$G$14*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="4" t="s">
         <v>64</v>
@@ -5707,10 +5707,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -5732,10 +5732,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -5833,15 +5833,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -5855,10 +5855,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>91</v>
@@ -5976,15 +5976,15 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -5996,17 +5996,17 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -6114,10 +6114,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -6141,10 +6141,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
       <c r="M29" s="4" t="s">
         <v>121</v>
@@ -6168,10 +6168,10 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -6309,10 +6309,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -6334,10 +6334,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -6477,10 +6477,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -6492,10 +6492,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -6529,10 +6529,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -6586,10 +6586,10 @@
         <f t="shared" ref="O39:O47" si="21">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -6625,15 +6625,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -6749,10 +6749,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -6932,10 +6932,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -6959,10 +6959,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="Q48" s="4" t="s">
         <v>205</v>
@@ -7006,10 +7006,10 @@
         <f>$K$48*J49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -7055,10 +7055,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>215</v>
@@ -7080,10 +7080,10 @@
         <f t="shared" ref="O51:O56" si="26">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -7097,10 +7097,10 @@
         <f>$C$51*B52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -7342,15 +7342,15 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -7384,10 +7384,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -7443,10 +7443,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -7490,10 +7490,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -7621,10 +7621,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -7710,20 +7710,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -7769,10 +7769,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -7816,10 +7816,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -7843,22 +7843,22 @@
         <f>$G$69*F70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5">
         <v>1</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -8050,10 +8050,10 @@
         <f t="shared" si="37"/>
         <v>0.23139999999999999</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -8099,10 +8099,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -8136,10 +8136,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -8228,14 +8228,15 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="U2:V12"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="E5:F5"/>
@@ -8247,9 +8248,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="I21:J21"/>
@@ -8263,36 +8261,38 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="Q51:R51"/>
     <mergeCell ref="Q43:R43"/>
     <mergeCell ref="Q47:R47"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="M49:N49"/>
     <mergeCell ref="E52:F52"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="M58:N58"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="I66:J66"/>
     <mergeCell ref="M66:N66"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="E76:F76"/>
     <mergeCell ref="Q66:R66"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="M70:N70"/>
     <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="E76:F76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V14" r:id="rId1" xr:uid="{FB83B665-EAEE-4430-AF79-47AAB54CBCF9}"/>
@@ -8306,7 +8306,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8325,35 +8325,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="5">
+        <f>6E+22/1E+24</f>
+        <v>0.06</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5"/>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -8365,7 +8368,7 @@
       </c>
       <c r="C2" s="6">
         <f>$C$1*B2</f>
-        <v>0</v>
+        <v>5.9991299999999997E-2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -8410,10 +8413,10 @@
         <f>$S$1*R2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -8425,7 +8428,7 @@
       </c>
       <c r="C3" s="6">
         <f>$C$1*B3</f>
-        <v>0</v>
+        <v>8.6999999999999997E-6</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -8470,41 +8473,41 @@
         <f>$S$1*R3</f>
         <v>0</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -8558,8 +8561,8 @@
         <f>$S$5*R6</f>
         <v>0</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -8613,8 +8616,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -8657,17 +8660,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -8680,28 +8683,28 @@
         <f>$C$9*B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -8755,8 +8758,8 @@
         <f>$S$10*R11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -8810,8 +8813,8 @@
         <f t="shared" ref="S12:S16" si="7">$S$10*R12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -8856,10 +8859,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5"/>
       <c r="Q14" s="4" t="s">
         <v>57</v>
@@ -8879,10 +8882,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -8894,15 +8897,15 @@
         <f>$G$14*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="4" t="s">
         <v>64</v>
@@ -9010,10 +9013,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -9035,10 +9038,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -9136,15 +9139,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -9158,10 +9161,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>91</v>
@@ -9279,15 +9282,15 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -9299,17 +9302,17 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -9417,10 +9420,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -9444,10 +9447,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
       <c r="M29" s="4" t="s">
         <v>121</v>
@@ -9471,13 +9474,13 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5">
-        <f>B105</f>
-        <v>3.6221200000000002E+22</v>
+        <f>B105/1E+24</f>
+        <v>3.6221200000000002E-2</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -9529,7 +9532,7 @@
       </c>
       <c r="C31" s="6">
         <f>$C$30*B31</f>
-        <v>1.8635807399999999E+22</v>
+        <v>1.8635807399999999E-2</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>129</v>
@@ -9581,7 +9584,7 @@
       </c>
       <c r="C32" s="6">
         <f t="shared" ref="C32:C35" si="18">$C$30*B32</f>
-        <v>4.0640186400000002E+21</v>
+        <v>4.06401864E-3</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>134</v>
@@ -9613,12 +9616,12 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" si="18"/>
-        <v>6.2119358000000003E+21</v>
-      </c>
-      <c r="E33" s="11" t="s">
+        <v>6.2119358000000012E-3</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -9640,10 +9643,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -9655,7 +9658,7 @@
       </c>
       <c r="C34" s="6">
         <f t="shared" si="18"/>
-        <v>6.295244560000001E+21</v>
+        <v>6.2952445600000006E-3</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>142</v>
@@ -9707,7 +9710,7 @@
       </c>
       <c r="C35" s="6">
         <f t="shared" si="18"/>
-        <v>1.0141936E+21</v>
+        <v>1.0141936E-3</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>147</v>
@@ -9783,10 +9786,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -9798,10 +9801,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -9835,10 +9838,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -9892,10 +9895,10 @@
         <f t="shared" ref="O39:O47" si="21">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -9931,15 +9934,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -10055,10 +10058,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -10238,10 +10241,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -10265,10 +10268,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="Q48" s="4" t="s">
         <v>205</v>
@@ -10312,10 +10315,10 @@
         <f>$K$48*J49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -10361,10 +10364,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>215</v>
@@ -10386,10 +10389,10 @@
         <f t="shared" ref="O51:O56" si="26">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -10403,10 +10406,10 @@
         <f>$C$51*B52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -10648,15 +10651,15 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -10690,10 +10693,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -10749,10 +10752,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -10796,10 +10799,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -10927,10 +10930,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -11016,20 +11019,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -11075,10 +11078,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -11122,10 +11125,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -11149,20 +11152,20 @@
         <f>$G$69*F70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -11354,10 +11357,10 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -11403,10 +11406,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -11440,10 +11443,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -11531,310 +11534,312 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="10">
         <v>2.54</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D83" s="11">
         <v>6.0221399999999997E+23</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="10">
         <v>6560</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="10">
         <v>211</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="10">
         <v>31.090047389999999</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="10">
         <v>0.26600000000000001</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="10">
         <v>14</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="10">
         <v>0.67564000000000002</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="10">
         <v>35.56</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="10">
         <v>50.99673026</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="10">
         <v>0.60964785799999999</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="10">
         <v>0.56788698000000004</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B96" s="17">
-        <v>1.4550099999999999E+21</v>
-      </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
+      <c r="B96" s="11">
+        <f>1.45501E+21/1E+24</f>
+        <v>1.4550099999999999E-3</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="10">
         <v>4.1760878000000001E-2</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B98" s="17">
-        <v>1.05656E+20</v>
-      </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
+      <c r="B98" s="11">
+        <f>105656000000000000000/1E+24</f>
+        <v>1.0565600000000001E-4</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="10">
         <v>310.90047390000001</v>
       </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="10">
         <v>6.0964785849999998</v>
       </c>
-      <c r="C101" s="16">
+      <c r="C101" s="10">
         <v>6096.4785849999998</v>
       </c>
-      <c r="D101" s="16"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B103" s="16">
+      <c r="B103" s="10">
         <v>279.81042650000001</v>
       </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="10">
         <v>5.486830726</v>
       </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B105" s="11">
         <v>3.6221200000000002E+22</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="11">
         <f>C31</f>
-        <v>1.8635807399999999E+22</v>
-      </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
+        <v>1.8635807399999999E-2</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B108" s="17">
+      <c r="B108" s="11">
         <f t="shared" ref="B108:B111" si="40">C32</f>
-        <v>4.0640186400000002E+21</v>
-      </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
+        <v>4.06401864E-3</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="11">
         <f t="shared" si="40"/>
-        <v>6.2119358000000003E+21</v>
-      </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
+        <v>6.2119358000000012E-3</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B110" s="17">
+      <c r="B110" s="11">
         <f t="shared" si="40"/>
-        <v>6.295244560000001E+21</v>
-      </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
+        <v>6.2952445600000006E-3</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="17">
+      <c r="B111" s="11">
         <f t="shared" si="40"/>
-        <v>1.0141936E+21</v>
-      </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
+        <v>1.0141936E-3</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="E69:F69"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="M70:N70"/>
     <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="I66:J66"/>
     <mergeCell ref="M66:N66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="A60:B60"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="Q43:R43"/>
     <mergeCell ref="Q47:R47"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="M58:N58"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="Q51:R51"/>
     <mergeCell ref="A37:B37"/>
@@ -11843,11 +11848,7 @@
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="M21:N21"/>
@@ -11855,11 +11856,11 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="U2:V12"/>
@@ -11872,12 +11873,16 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="M10:N10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V14" r:id="rId1" xr:uid="{A065C4F7-CD72-4485-8975-75CE4B6795AE}"/>
@@ -11909,38 +11914,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5">
         <f>V17</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -11997,10 +12002,10 @@
         <f>$S$1*R2</f>
         <v>7.9151999999999998E-4</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -12057,47 +12062,47 @@
         <f>$S$1*R3</f>
         <v>8.4799999999999984E-6</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5">
         <f>V25</f>
         <v>1E-3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5">
         <f>V19</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -12151,8 +12156,8 @@
         <f>$S$5*R6</f>
         <v>6.9238499999999996E-3</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -12206,8 +12211,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>3.48375E-4</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -12250,20 +12255,20 @@
         <f t="shared" si="3"/>
         <v>2.2777499999999999E-4</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5">
         <f>V21</f>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -12276,28 +12281,28 @@
         <f>$C$9*B10</f>
         <v>2.8586999999999997E-4</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -12351,8 +12356,8 @@
         <f>$S$10*R11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -12406,8 +12411,8 @@
         <f t="shared" ref="S12:S16" si="7">$S$10*R12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -12452,10 +12457,10 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5"/>
       <c r="Q14" s="4" t="s">
         <v>57</v>
@@ -12475,10 +12480,10 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -12490,18 +12495,18 @@
         <f>$G$14*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5">
         <f>V22</f>
         <v>0.17</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5">
         <f>V26</f>
         <v>0.65517500000000006</v>
@@ -12568,10 +12573,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="V16" s="10"/>
+      <c r="V16" s="12"/>
       <c r="W16" s="3" t="s">
         <v>336</v>
       </c>
@@ -12613,10 +12618,10 @@
       <c r="V17" s="7">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="X17" s="14" t="s">
+      <c r="X17" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Y17" s="14"/>
+      <c r="Y17" s="16"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -12629,10 +12634,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -12654,10 +12659,10 @@
         <f t="shared" si="10"/>
         <v>1.3883158250000001E-2</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5">
         <f>V24</f>
         <v>0.12</v>
@@ -12668,8 +12673,8 @@
       <c r="V18" s="7">
         <v>0.02</v>
       </c>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -12779,15 +12784,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -12807,10 +12812,10 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>91</v>
@@ -12946,15 +12951,15 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -12966,10 +12971,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
       <c r="U25" t="s">
         <v>346</v>
@@ -12979,10 +12984,10 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -13098,10 +13103,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -13125,10 +13130,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5">
         <f>V23</f>
         <v>2.5000000000000001E-2</v>
@@ -13155,10 +13160,10 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -13296,10 +13301,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -13321,10 +13326,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -13464,10 +13469,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -13479,10 +13484,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -13516,10 +13521,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -13573,10 +13578,10 @@
         <f t="shared" ref="O39:O47" si="21">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -13612,15 +13617,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -13736,10 +13741,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -13919,10 +13924,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -13946,10 +13951,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="Q48" s="4" t="s">
         <v>205</v>
@@ -13993,10 +13998,10 @@
         <f>$K$48*J49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -14042,10 +14047,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>215</v>
@@ -14067,10 +14072,10 @@
         <f t="shared" ref="O51:O56" si="26">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -14084,10 +14089,10 @@
         <f>$C$51*B52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -14329,15 +14334,15 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -14371,10 +14376,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -14430,10 +14435,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -14477,10 +14482,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -14608,10 +14613,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -14697,20 +14702,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -14756,10 +14761,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -14803,10 +14808,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -14830,20 +14835,20 @@
         <f>$G$69*F70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -15035,10 +15040,10 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -15084,10 +15089,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -15121,10 +15126,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -15313,38 +15318,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5">
         <f>V26</f>
         <v>1E-4</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -15401,10 +15406,10 @@
         <f>$S$1*R2</f>
         <v>9.8939999999999998E-5</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -15461,44 +15466,44 @@
         <f>$S$1*R3</f>
         <v>1.0599999999999998E-6</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5">
         <f>V25</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -15552,8 +15557,8 @@
         <f>$S$5*R6</f>
         <v>7.3854400000000005E-4</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -15607,8 +15612,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>3.7160000000000003E-5</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -15651,17 +15656,17 @@
         <f t="shared" si="3"/>
         <v>2.4296000000000003E-5</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -15674,28 +15679,28 @@
         <f>$C$9*B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -15749,8 +15754,8 @@
         <f>$S$10*R11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -15804,8 +15809,8 @@
         <f t="shared" ref="S12:S16" si="7">$S$10*R12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -15850,10 +15855,10 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5">
         <f>V24</f>
         <v>3.5000000000000001E-3</v>
@@ -15876,10 +15881,10 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -15891,18 +15896,18 @@
         <f>$G$14*F15</f>
         <v>8.7500000000000009E-6</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5">
         <f>V19</f>
         <v>0.16</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5">
         <f>V21</f>
         <v>0.05</v>
@@ -15969,10 +15974,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="V16" s="10"/>
+      <c r="V16" s="12"/>
       <c r="W16" s="3" t="s">
         <v>336</v>
       </c>
@@ -16027,10 +16032,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -16052,10 +16057,10 @@
         <f t="shared" si="10"/>
         <v>1.0595000000000001E-3</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5">
         <f>V17</f>
         <v>0.54560000000000008</v>
@@ -16174,15 +16179,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -16202,10 +16207,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5">
         <f>V27</f>
         <v>5.0000000000000001E-3</v>
@@ -16344,15 +16349,15 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -16364,10 +16369,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
       <c r="U25" t="s">
         <v>340</v>
@@ -16377,10 +16382,10 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -16500,10 +16505,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -16527,10 +16532,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5">
         <f>V20</f>
         <v>0.16</v>
@@ -16557,10 +16562,10 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -16698,10 +16703,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -16723,10 +16728,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -16866,10 +16871,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -16881,10 +16886,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -16918,10 +16923,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -16975,10 +16980,10 @@
         <f t="shared" ref="O39:O47" si="21">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -17014,15 +17019,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -17138,10 +17143,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -17321,10 +17326,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -17348,10 +17353,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="Q48" s="4" t="s">
         <v>205</v>
@@ -17395,10 +17400,10 @@
         <f>$K$48*J49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -17444,10 +17449,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>215</v>
@@ -17469,10 +17474,10 @@
         <f t="shared" ref="O51:O56" si="26">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -17486,10 +17491,10 @@
         <f>$C$51*B52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -17731,15 +17736,15 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -17773,10 +17778,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -17832,10 +17837,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -17879,10 +17884,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -18010,10 +18015,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -18099,20 +18104,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -18158,10 +18163,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -18205,10 +18210,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5">
         <f>V22</f>
         <v>0.04</v>
@@ -18235,20 +18240,20 @@
         <f>$G$69*F70</f>
         <v>4.7999999999999994E-5</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -18440,10 +18445,10 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -18489,10 +18494,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -18526,10 +18531,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -18645,17 +18650,13 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E41:F41"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A64:B64"/>
@@ -18677,6 +18678,8 @@
     <mergeCell ref="Q57:R57"/>
     <mergeCell ref="M58:N58"/>
     <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="Q66:R66"/>
     <mergeCell ref="Q33:R33"/>
@@ -18684,6 +18687,8 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M66:N66"/>
     <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="Q39:R39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V14" r:id="rId1" xr:uid="{5B3641FE-3BE4-D442-AB4B-298D06E4291D}"/>
@@ -18717,38 +18722,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5">
         <f>V27</f>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -18805,10 +18810,10 @@
         <f>$S$1*R2</f>
         <v>5.9363999999999988E-4</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -18865,44 +18870,44 @@
         <f>$S$1*R3</f>
         <v>6.3599999999999984E-6</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5">
         <f>V21</f>
         <v>0.01</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -18956,8 +18961,8 @@
         <f>$S$5*R6</f>
         <v>9.2318000000000001E-3</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -19011,8 +19016,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>4.6450000000000001E-4</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -19055,17 +19060,17 @@
         <f t="shared" si="3"/>
         <v>3.0370000000000001E-4</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -19078,28 +19083,28 @@
         <f>$C$9*B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -19153,8 +19158,8 @@
         <f>$S$10*R11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -19208,8 +19213,8 @@
         <f t="shared" ref="S12:S16" si="7">$S$10*R12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -19254,10 +19259,10 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5">
         <f>V24</f>
         <v>5.0000000000000001E-3</v>
@@ -19280,10 +19285,10 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5">
         <f>V29</f>
         <v>2.5000000000000001E-3</v>
@@ -19298,18 +19303,18 @@
         <f>$G$14*F15</f>
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5">
         <f>V19</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5">
         <f>V20</f>
         <v>0.04</v>
@@ -19376,10 +19381,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="V16" s="10"/>
+      <c r="V16" s="12"/>
       <c r="W16" s="3" t="s">
         <v>336</v>
       </c>
@@ -19434,10 +19439,10 @@
         <f t="shared" si="8"/>
         <v>1.843E-3</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -19459,10 +19464,10 @@
         <f t="shared" si="10"/>
         <v>8.476E-4</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5">
         <f>V17</f>
         <v>0.69089999999999996</v>
@@ -19581,15 +19586,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -19609,10 +19614,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5">
         <f>V26</f>
         <v>2E-3</v>
@@ -19751,15 +19756,15 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -19771,10 +19776,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
       <c r="U25" t="s">
         <v>352</v>
@@ -19784,10 +19789,10 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -19907,10 +19912,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -19940,10 +19945,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5">
         <f>V18</f>
         <v>0.16</v>
@@ -19976,10 +19981,10 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -20117,10 +20122,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -20142,10 +20147,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -20285,10 +20290,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -20300,10 +20305,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -20337,10 +20342,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -20394,10 +20399,10 @@
         <f t="shared" ref="O39:O47" si="21">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -20433,15 +20438,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -20557,10 +20562,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -20740,10 +20745,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -20767,10 +20772,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="Q48" s="4" t="s">
         <v>205</v>
@@ -20814,10 +20819,10 @@
         <f>$K$48*J49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -20863,10 +20868,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>215</v>
@@ -20888,10 +20893,10 @@
         <f t="shared" ref="O51:O56" si="26">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -20905,10 +20910,10 @@
         <f>$C$51*B52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -21150,15 +21155,15 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -21192,10 +21197,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -21251,10 +21256,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -21298,10 +21303,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -21429,10 +21434,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -21518,20 +21523,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -21577,10 +21582,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -21624,10 +21629,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5">
         <f>V23</f>
         <v>5.0000000000000001E-3</v>
@@ -21654,20 +21659,20 @@
         <f>$G$69*F70</f>
         <v>5.9999999999999993E-6</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -21859,10 +21864,10 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -21908,10 +21913,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -21945,10 +21950,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -22064,17 +22069,13 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E41:F41"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A64:B64"/>
@@ -22096,6 +22097,8 @@
     <mergeCell ref="Q57:R57"/>
     <mergeCell ref="M58:N58"/>
     <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="Q66:R66"/>
     <mergeCell ref="Q33:R33"/>
@@ -22103,6 +22106,8 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M66:N66"/>
     <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="Q39:R39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="V14" r:id="rId1" xr:uid="{1FAE58F6-3708-8D44-BFBB-146211AF520E}"/>
@@ -22136,38 +22141,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5">
         <f>V17</f>
         <v>5.2840778361997066E-3</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5"/>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
       <c r="W1" s="1"/>
       <c r="X1" s="3" t="s">
         <v>356</v>
@@ -22228,22 +22233,22 @@
         <f>$S$1*R2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
       <c r="W2" s="2"/>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -22300,22 +22305,22 @@
         <f>$S$1*R3</f>
         <v>0</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
       <c r="W3" s="2"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
       <c r="W4" s="2"/>
       <c r="Y4" s="9" t="s">
         <v>358</v>
@@ -22349,42 +22354,42 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5">
         <f>V15</f>
         <v>0.36233529357985322</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5">
         <f>V20</f>
         <v>1.5754728620702579E-3</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5">
         <f>V16</f>
         <v>0.22218134963093683</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
       <c r="W5" s="2"/>
       <c r="Y5">
         <v>0.61</v>
@@ -22466,8 +22471,8 @@
         <f>$S$5*R6</f>
         <v>0.20511337835228827</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
       <c r="W6" s="2"/>
       <c r="X6" t="s">
         <v>368</v>
@@ -22561,8 +22566,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>1.0320323690357016E-2</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
       <c r="W7" s="2"/>
       <c r="X7" t="s">
         <v>369</v>
@@ -22649,8 +22654,8 @@
         <f t="shared" si="3"/>
         <v>6.7476475882915516E-3</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
       <c r="W8" s="2"/>
       <c r="X8" t="s">
         <v>370</v>
@@ -22697,13 +22702,13 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
       <c r="W9" s="2"/>
       <c r="X9" t="s">
         <v>371</v>
@@ -22756,31 +22761,31 @@
         <f>$C$9*B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5">
         <f>V18</f>
         <v>1.0910928215318248E-2</v>
       </c>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
       <c r="W10" s="2"/>
       <c r="X10" t="s">
         <v>372</v>
@@ -22874,8 +22879,8 @@
         <f>$S$10*R11</f>
         <v>1.0577162921211662E-2</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
       <c r="W11" s="2"/>
       <c r="X11" t="s">
         <v>373</v>
@@ -22973,8 +22978,8 @@
         <f t="shared" ref="S12:S16" si="13">$S$10*R12</f>
         <v>7.0593705553109067E-5</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
       <c r="W12" s="2"/>
       <c r="X12" t="s">
         <v>374</v>
@@ -23063,10 +23068,10 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5"/>
       <c r="Q14" s="4" t="s">
         <v>57</v>
@@ -23087,10 +23092,10 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5">
         <f>V19</f>
         <v>5.9758386034135899E-2</v>
@@ -23105,15 +23110,15 @@
         <f>$G$14*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="4" t="s">
         <v>64</v>
@@ -23242,10 +23247,10 @@
         <f t="shared" si="15"/>
         <v>4.4053882184364984E-2</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -23267,10 +23272,10 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5"/>
       <c r="U18" t="s">
         <v>377</v>
@@ -23389,15 +23394,15 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -23418,10 +23423,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>91</v>
@@ -23560,15 +23565,15 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -23580,17 +23585,17 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -23698,10 +23703,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -23725,10 +23730,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
       <c r="M29" s="4" t="s">
         <v>121</v>
@@ -23752,10 +23757,10 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5">
         <f>V23</f>
         <v>3.6897765647514465E-2</v>
@@ -23896,10 +23901,10 @@
         <f t="shared" si="25"/>
         <v>6.3279668085487314E-3</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -23921,10 +23926,10 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5">
         <f>V22</f>
         <v>9.0871897915843613E-3</v>
@@ -24067,10 +24072,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -24082,10 +24087,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -24119,10 +24124,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -24176,10 +24181,10 @@
         <f t="shared" ref="O39:O47" si="28">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -24215,15 +24220,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -24339,10 +24344,10 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -24522,10 +24527,10 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -24549,10 +24554,10 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5">
         <f>V21</f>
         <v>0.28484741212255316</v>
@@ -24599,10 +24604,10 @@
         <f>$K$48*J49</f>
         <v>3.1333215333480849E-4</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -24648,10 +24653,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>215</v>
@@ -24673,10 +24678,10 @@
         <f t="shared" ref="O51:O56" si="33">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -24690,10 +24695,10 @@
         <f>$C$51*B52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -24935,15 +24940,15 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -24977,10 +24982,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -25036,10 +25041,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -25083,10 +25088,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -25214,10 +25219,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -25303,20 +25308,20 @@
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -25362,10 +25367,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -25409,10 +25414,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -25436,20 +25441,20 @@
         <f>$G$69*F70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -25641,10 +25646,10 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -25690,10 +25695,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -25727,10 +25732,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -25850,8 +25855,6 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="Q51:R51"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="I38:J38"/>
@@ -25870,6 +25873,7 @@
     <mergeCell ref="M70:N70"/>
     <mergeCell ref="Q70:R70"/>
     <mergeCell ref="U2:V12"/>
+    <mergeCell ref="Q51:R51"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="Q43:R43"/>
     <mergeCell ref="Q47:R47"/>
@@ -25879,6 +25883,7 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="Q57:R57"/>
     <mergeCell ref="M58:N58"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="Q66:R66"/>
     <mergeCell ref="Q33:R33"/>
@@ -25917,35 +25922,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5"/>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -26002,10 +26007,10 @@
         <f>$S$1*R2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -26062,44 +26067,44 @@
         <f>$S$1*R3</f>
         <v>0</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5">
         <f>V18</f>
         <v>0.63967962107924303</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -26153,8 +26158,8 @@
         <f>$S$5*R6</f>
         <v>0</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -26208,8 +26213,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -26252,17 +26257,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -26275,28 +26280,28 @@
         <f>$C$9*B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -26350,8 +26355,8 @@
         <f>$S$10*R11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -26405,8 +26410,8 @@
         <f t="shared" ref="S12:S16" si="7">$S$10*R12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -26451,10 +26456,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5"/>
       <c r="Q14" s="4" t="s">
         <v>57</v>
@@ -26474,10 +26479,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -26489,15 +26494,15 @@
         <f>$G$14*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="4" t="s">
         <v>64</v>
@@ -26615,10 +26620,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -26640,10 +26645,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5"/>
       <c r="U18" t="s">
         <v>375</v>
@@ -26748,15 +26753,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -26770,10 +26775,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>91</v>
@@ -26891,15 +26896,15 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -26911,17 +26916,17 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -27029,10 +27034,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -27056,10 +27061,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
       <c r="M29" s="4" t="s">
         <v>121</v>
@@ -27083,10 +27088,10 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -27224,10 +27229,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -27249,10 +27254,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -27392,10 +27397,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -27407,10 +27412,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -27444,10 +27449,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -27501,10 +27506,10 @@
         <f t="shared" ref="O39:O47" si="21">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -27540,15 +27545,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -27664,10 +27669,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -27847,10 +27852,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -27874,10 +27879,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="Q48" s="4" t="s">
         <v>205</v>
@@ -27921,10 +27926,10 @@
         <f>$K$48*J49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -27970,10 +27975,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>215</v>
@@ -27995,10 +28000,10 @@
         <f t="shared" ref="O51:O56" si="26">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -28012,10 +28017,10 @@
         <f>$C$51*B52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -28257,15 +28262,15 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -28299,10 +28304,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -28358,10 +28363,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -28405,10 +28410,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -28536,10 +28541,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -28625,20 +28630,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -28684,10 +28689,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -28731,10 +28736,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -28758,20 +28763,20 @@
         <f>$G$69*F70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -28963,10 +28968,10 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -29012,10 +29017,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -29049,10 +29054,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -29141,7 +29146,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="U1:V1"/>
@@ -29157,11 +29161,18 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="M21:N21"/>
@@ -29173,12 +29184,6 @@
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="I38:J38"/>
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E41:F41"/>
@@ -29237,35 +29242,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5"/>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -29322,10 +29327,10 @@
         <f>$S$1*R2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -29382,41 +29387,41 @@
         <f>$S$1*R3</f>
         <v>0</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -29470,8 +29475,8 @@
         <f>$S$5*R6</f>
         <v>0</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -29525,8 +29530,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -29569,17 +29574,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -29592,28 +29597,28 @@
         <f>$C$9*B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -29667,8 +29672,8 @@
         <f>$S$10*R11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -29722,8 +29727,8 @@
         <f t="shared" ref="S12:S16" si="7">$S$10*R12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -29768,10 +29773,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5"/>
       <c r="Q14" s="4" t="s">
         <v>57</v>
@@ -29791,10 +29796,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -29806,15 +29811,15 @@
         <f>$G$14*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="4" t="s">
         <v>64</v>
@@ -29931,10 +29936,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -29956,10 +29961,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -30057,15 +30062,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -30079,10 +30084,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>91</v>
@@ -30200,15 +30205,15 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -30220,17 +30225,17 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -30338,10 +30343,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -30365,10 +30370,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
       <c r="M29" s="4" t="s">
         <v>121</v>
@@ -30392,10 +30397,10 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -30533,10 +30538,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -30558,10 +30563,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -30701,10 +30706,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -30716,10 +30721,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -30753,10 +30758,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -30810,10 +30815,10 @@
         <f t="shared" ref="O39:O47" si="21">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -30849,15 +30854,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -30973,10 +30978,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -31156,10 +31161,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -31183,10 +31188,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="Q48" s="4" t="s">
         <v>205</v>
@@ -31230,10 +31235,10 @@
         <f>$K$48*J49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -31279,10 +31284,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>215</v>
@@ -31304,10 +31309,10 @@
         <f t="shared" ref="O51:O56" si="26">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -31321,10 +31326,10 @@
         <f>$C$51*B52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -31566,15 +31571,15 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -31608,10 +31613,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -31667,10 +31672,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -31714,10 +31719,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -31845,10 +31850,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -31934,20 +31939,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -31993,10 +31998,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -32040,10 +32045,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -32067,20 +32072,20 @@
         <f>$G$69*F70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -32272,10 +32277,10 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -32321,10 +32326,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -32358,10 +32363,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -32450,7 +32455,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="U1:V1"/>
@@ -32466,11 +32470,18 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="M21:N21"/>
@@ -32482,12 +32493,6 @@
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="I38:J38"/>
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E41:F41"/>
@@ -32546,35 +32551,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5"/>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -32631,10 +32636,10 @@
         <f>$S$1*R2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -32691,41 +32696,41 @@
         <f>$S$1*R3</f>
         <v>0</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -32779,8 +32784,8 @@
         <f>$S$5*R6</f>
         <v>0</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -32834,8 +32839,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -32878,17 +32883,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -32901,31 +32906,31 @@
         <f>$C$9*B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5">
         <f>V18</f>
         <v>0.78</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -32979,8 +32984,8 @@
         <f>$S$10*R11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -33034,8 +33039,8 @@
         <f t="shared" ref="S12:S16" si="7">$S$10*R12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -33080,10 +33085,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5"/>
       <c r="Q14" s="4" t="s">
         <v>57</v>
@@ -33103,10 +33108,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -33118,15 +33123,15 @@
         <f>$G$14*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="4" t="s">
         <v>64</v>
@@ -33244,10 +33249,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -33269,10 +33274,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5"/>
       <c r="U18" t="s">
         <v>385</v>
@@ -33376,15 +33381,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -33398,10 +33403,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>91</v>
@@ -33519,15 +33524,15 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -33539,17 +33544,17 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -33657,10 +33662,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -33684,10 +33689,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
       <c r="M29" s="4" t="s">
         <v>121</v>
@@ -33711,10 +33716,10 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -33852,10 +33857,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -33877,10 +33882,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -34020,10 +34025,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -34035,10 +34040,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -34072,10 +34077,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -34129,10 +34134,10 @@
         <f t="shared" ref="O39:O47" si="21">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -34168,15 +34173,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -34292,10 +34297,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -34475,10 +34480,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -34502,10 +34507,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="Q48" s="4" t="s">
         <v>205</v>
@@ -34549,10 +34554,10 @@
         <f>$K$48*J49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -34598,10 +34603,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>215</v>
@@ -34623,10 +34628,10 @@
         <f t="shared" ref="O51:O56" si="26">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -34640,10 +34645,10 @@
         <f>$C$51*B52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -34885,15 +34890,15 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -34927,10 +34932,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -34986,10 +34991,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -35033,10 +35038,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -35164,10 +35169,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -35253,20 +35258,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -35312,10 +35317,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -35359,10 +35364,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -35386,20 +35391,20 @@
         <f>$G$69*F70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -35591,10 +35596,10 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -35640,10 +35645,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -35677,10 +35682,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -35769,7 +35774,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="U1:V1"/>
@@ -35785,11 +35789,18 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="M21:N21"/>
@@ -35801,12 +35812,6 @@
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="I38:J38"/>
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E41:F41"/>
@@ -35865,35 +35870,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="5"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="13"/>
       <c r="S1" s="5"/>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -35950,10 +35955,10 @@
         <f>$S$1*R2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -36010,44 +36015,44 @@
         <f>$S$1*R3</f>
         <v>0</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5">
         <f>V19</f>
         <v>0.13764179787576325</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="5"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -36101,8 +36106,8 @@
         <f>$S$5*R6</f>
         <v>0</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -36156,8 +36161,8 @@
         <f t="shared" ref="S7:S8" si="3">$S$5*R7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
@@ -36200,17 +36205,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -36223,28 +36228,28 @@
         <f>$C$9*B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="5"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -36298,8 +36303,8 @@
         <f>$S$10*R11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -36353,8 +36358,8 @@
         <f t="shared" ref="S12:S16" si="7">$S$10*R12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -36399,10 +36404,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5"/>
       <c r="Q14" s="4" t="s">
         <v>57</v>
@@ -36422,10 +36427,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -36437,15 +36442,15 @@
         <f>$G$14*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="4" t="s">
         <v>64</v>
@@ -36556,10 +36561,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="I18" s="4" t="s">
         <v>75</v>
@@ -36581,10 +36586,10 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="5"/>
       <c r="U18" t="s">
         <v>386</v>
@@ -36696,15 +36701,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="4" t="s">
         <v>89</v>
@@ -36718,10 +36723,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>91</v>
@@ -36839,15 +36844,15 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
       <c r="M25" s="4" t="s">
         <v>104</v>
@@ -36859,17 +36864,17 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>107</v>
@@ -36977,10 +36982,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="4" t="s">
         <v>118</v>
@@ -37004,10 +37009,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
       <c r="M29" s="4" t="s">
         <v>121</v>
@@ -37031,10 +37036,10 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>124</v>
@@ -37172,10 +37177,10 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>138</v>
@@ -37197,10 +37202,10 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -37340,10 +37345,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>155</v>
@@ -37355,10 +37360,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="5"/>
       <c r="Q37" s="4" t="s">
         <v>157</v>
@@ -37392,10 +37397,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="5"/>
       <c r="M38" s="4" t="s">
         <v>161</v>
@@ -37449,10 +37454,10 @@
         <f t="shared" ref="O39:O47" si="21">$O$37*N39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -37488,15 +37493,15 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>172</v>
@@ -37612,10 +37617,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="13"/>
+      <c r="R43" s="15"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -37795,10 +37800,10 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="13"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -37822,10 +37827,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="5"/>
       <c r="Q48" s="4" t="s">
         <v>205</v>
@@ -37869,10 +37874,10 @@
         <f>$K$48*J49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="4" t="s">
         <v>210</v>
@@ -37918,10 +37923,10 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="5">
         <f>V18</f>
         <v>0.86235820212423675</v>
@@ -37946,10 +37951,10 @@
         <f t="shared" ref="O51:O56" si="26">$O$49*N51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="13"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -37963,10 +37968,10 @@
         <f>$C$51*B52</f>
         <v>2.6560632625426493E-2</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>220</v>
@@ -38208,15 +38213,15 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="5"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -38250,10 +38255,10 @@
         <f>$K$57*J58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="5"/>
       <c r="Q58" s="4" t="s">
         <v>249</v>
@@ -38309,10 +38314,10 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>255</v>
@@ -38356,10 +38361,10 @@
         <f>$C$60*B61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="I61" s="4" t="s">
         <v>260</v>
@@ -38487,10 +38492,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="E64" s="4" t="s">
         <v>273</v>
@@ -38576,20 +38581,20 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="5"/>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N66" s="11"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="5"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="13"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -38635,10 +38640,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="5"/>
       <c r="I68" s="4" t="s">
         <v>289</v>
@@ -38682,10 +38687,10 @@
         <f>$C$68*B69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -38709,20 +38714,20 @@
         <f>$G$69*F70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="5"/>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="5"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="13"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -38914,10 +38919,10 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="13"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -38963,10 +38968,10 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="I76" s="4" t="s">
         <v>323</v>
@@ -39000,10 +39005,10 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="5"/>
       <c r="E77" s="4" t="s">
         <v>327</v>
@@ -39092,7 +39097,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="U1:V1"/>
@@ -39108,11 +39112,18 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="M21:N21"/>
@@ -39124,12 +39135,6 @@
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="I38:J38"/>
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E41:F41"/>
